--- a/王语晗/tp_shop_wrong_mail.xlsx
+++ b/王语晗/tp_shop_wrong_mail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>11@qq.com</t>
   </si>
@@ -125,6 +125,30 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>密码有效长度为6-16位！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,10 +482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -469,9 +493,10 @@
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -487,8 +512,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -504,8 +532,11 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -521,8 +552,11 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -538,8 +572,11 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -555,8 +592,11 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -572,8 +612,11 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -589,8 +632,11 @@
       <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -605,10 +651,14 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>